--- a/biology/Zoologie/Heleioporus_albopunctatus/Heleioporus_albopunctatus.xlsx
+++ b/biology/Zoologie/Heleioporus_albopunctatus/Heleioporus_albopunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heleioporus albopunctatus est une espèce d'amphibiens de la famille des Limnodynastidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heleioporus albopunctatus est une espèce d'amphibiens de la famille des Limnodynastidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Australie-Occidentale. Elle se rencontre du niveau de la mer jusqu'à 600 m d'altitude dans le Sud-Ouest de cet État[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Australie-Occidentale. Elle se rencontre du niveau de la mer jusqu'à 600 m d'altitude dans le Sud-Ouest de cet État,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1841 : Descriptions of some new species and four new genera of reptiles from Western Australia, discovered by John Gould, Esq. Annals and Magazine of Natural History, sér. 1, vol. 7, p. 86–91 (texte intégral).</t>
         </is>
